--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1923.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1923.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>3.332430295291616</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1923.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1923.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>15</v>
+        <v>1.051369071006775</v>
       </c>
       <c r="B1">
-        <v>3.332430295291616</v>
+        <v>1.104343891143799</v>
       </c>
       <c r="C1">
-        <v>1.89305220885446</v>
+        <v>0.8595868349075317</v>
       </c>
       <c r="D1">
-        <v>1.530983427224606</v>
+        <v>4.945044040679932</v>
       </c>
       <c r="E1">
-        <v>1.422768395643325</v>
+        <v>2.073944807052612</v>
       </c>
     </row>
   </sheetData>
